--- a/data/trans_bre/P3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,31</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>-22,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>-3,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>-7,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,06%</t>
+          <t>-11,93%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-13,32%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-32,56%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 12,35</t>
+          <t>-22,59; 20,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 16,03</t>
+          <t>-25,55; 18,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,99; 9,63</t>
+          <t>-28,69; 17,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,72; 11,58</t>
+          <t>-30,94; 15,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,64; 22,91</t>
+          <t>-43,76; 1,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 30,33</t>
+          <t>-29,62; 38,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 19,01</t>
+          <t>-33,13; 33,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 24,77</t>
+          <t>-40,09; 31,21</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-41,46; 32,84</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-55,75; 2,13</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,3</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>-3,26%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-9,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30,14%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 20,59</t>
+          <t>-10,75; 30,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 18,0</t>
+          <t>-14,04; 30,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 13,7</t>
+          <t>-21,06; 23,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 15,98</t>
+          <t>-25,72; 21,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 85,72</t>
+          <t>-19,47; 35,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 69,56</t>
+          <t>-27,04; 189,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 44,57</t>
+          <t>-31,83; 182,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 55,88</t>
+          <t>-42,09; 102,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-46,31; 97,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-43,37; 205,83</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>-16,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>-18,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-18,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-18,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,54%</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>-27,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-8,64%</t>
+          <t>-30,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,34%</t>
+          <t>-31,53%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-31,19%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-10,77%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 7,6</t>
+          <t>-31,36; 0,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,8; 6,48</t>
+          <t>-34,41; -3,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 9,93</t>
+          <t>-33,31; -2,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 13,2</t>
+          <t>-32,57; -2,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 20,2</t>
+          <t>-22,03; 11,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 15,95</t>
+          <t>-47,74; 0,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 25,52</t>
+          <t>-49,98; -7,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-29,23; 37,57</t>
+          <t>-50,98; -6,35</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-50,75; -5,28</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-36,1; 28,99</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-9,69</t>
+          <t>-10,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,75</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,42</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,55</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,47%</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,63%</t>
+          <t>-21,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,34%</t>
+          <t>-18,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>-19,75%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-21,64%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-20,92%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 1,48</t>
+          <t>-24,43; 4,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 2,66</t>
+          <t>-23,2; 6,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 3,01</t>
+          <t>-24,15; 4,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 2,17</t>
+          <t>-25,72; 4,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 3,18</t>
+          <t>-24,55; 3,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,27; 6,13</t>
+          <t>-42,33; 11,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-32,7; 6,11</t>
+          <t>-40,04; 15,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,95; 4,88</t>
+          <t>-41,33; 11,4</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-43,77; 11,51</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-43,35; 9,1</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,39%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,88%</t>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,09%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 13,68</t>
+          <t>-17,23; 17,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 12,95</t>
+          <t>-17,01; 18,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 13,32</t>
+          <t>-17,36; 18,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 10,98</t>
+          <t>-19,69; 15,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 31,01</t>
+          <t>-21,06; 15,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,66; 30,1</t>
+          <t>-32,06; 42,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 31,14</t>
+          <t>-31,32; 43,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 24,4</t>
+          <t>-31,03; 44,14</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-35,15; 36,89</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-36,74; 38,69</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,43</t>
+          <t>-19,38</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>-17,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,43</t>
+          <t>-19,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-20,01</t>
+          <t>-19,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-25,09%</t>
+          <t>-20,53</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-24,87%</t>
+          <t>-33,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-33,69%</t>
+          <t>-32,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-38,21%</t>
+          <t>-34,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-33,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-33,94%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 2,97</t>
+          <t>-41,04; 2,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,08; 2,73</t>
+          <t>-38,97; 5,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,65; -0,83</t>
+          <t>-40,73; 3,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -3,62</t>
+          <t>-42,88; 2,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,53; 6,96</t>
+          <t>-44,45; 3,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,61; 6,69</t>
+          <t>-62,73; 4,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-55,51; -1,58</t>
+          <t>-61,09; 11,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,68; -9,85</t>
+          <t>-63,04; 7,89</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-63,38; 5,56</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-63,03; 7,2</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>-6,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-6,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-7,32</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-7,58</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,24%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-14,43%</t>
+          <t>-13,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,13%</t>
+          <t>-17,54%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-19,55%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-13,79%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,96</t>
+          <t>-14,38; 1,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 0,63</t>
+          <t>-15,8; 1,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,05</t>
+          <t>-17,97; -0,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -0,64</t>
+          <t>-19,07; -1,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 2,14</t>
+          <t>-15,71; 3,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,27; 1,3</t>
+          <t>-25,96; 4,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -2,2</t>
+          <t>-28,21; 3,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -1,7</t>
+          <t>-31,68; -2,03</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-32,9; -2,81</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-28,74; 9,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
